--- a/ASA/Cisco-ASA-Documentation.xlsx
+++ b/ASA/Cisco-ASA-Documentation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\learning\ASA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46ED4371-7462-4E66-AEB7-7CEEC036D533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0D4C20-E0B7-4CF2-9F76-3D34EEC889BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="648" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
   <si>
     <t>Command</t>
   </si>
@@ -1125,6 +1125,10 @@
   </si>
   <si>
     <t>Order is relevant only if here is a match!!!</t>
+  </si>
+  <si>
+    <t>min. 56 on 
+https://www.youtube.com/watch?v=McPWgBdMqfQ&amp;t=3144s</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1518,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent5" xfId="4" builtinId="45"/>
@@ -2720,7 +2726,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2941,12 +2947,15 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="12" t="s">
         <v>161</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/ASA/Cisco-ASA-Documentation.xlsx
+++ b/ASA/Cisco-ASA-Documentation.xlsx
@@ -696,7 +696,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -712,7 +712,7 @@
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FFC00000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -725,7 +725,7 @@
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FF002060"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -737,7 +737,7 @@
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="11"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -760,7 +760,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -779,7 +779,7 @@
       <rPr>
         <b val="true"/>
         <i val="true"/>
-        <sz val="11"/>
+        <sz val="13"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1093,7 +1093,7 @@
     <t xml:space="preserve">Important rule: place NAT rules corectly!!!</t>
   </si>
   <si>
-    <t xml:space="preserve">Order is relevant only if here is a match!!!</t>
+    <t xml:space="preserve">Order is relevant only if there is a match!!!</t>
   </si>
   <si>
     <t xml:space="preserve">min. 56 on 
@@ -1201,7 +1201,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1288,6 +1288,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -1318,7 +1325,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1326,7 +1333,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1334,8 +1341,16 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <i val="true"/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1352,14 +1367,6 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1388,30 +1395,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1428,7 +1417,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9DC3E6"/>
-        <bgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -1444,7 +1433,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1452,38 +1441,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1507,20 +1466,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1549,15 +1499,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1601,87 +1551,99 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="1" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="2" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="2" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1689,7 +1651,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="5" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1698,17 +1660,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Good" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Note" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Output" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Accent5" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1726,12 +1685,12 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF5B9BD5"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -1746,7 +1705,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFC6EFCE"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF9DC3E6"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -1784,9 +1743,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5465520</xdr:colOff>
+      <xdr:colOff>5465160</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1800,7 +1759,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1736280"/>
-          <a:ext cx="5465520" cy="1113480"/>
+          <a:ext cx="5465160" cy="1113120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1821,9 +1780,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>292680</xdr:colOff>
+      <xdr:colOff>292320</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1837,7 +1796,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5825160" y="1726920"/>
-          <a:ext cx="4608360" cy="1906200"/>
+          <a:ext cx="4608720" cy="1905840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1863,9 +1822,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3924000</xdr:colOff>
+      <xdr:colOff>3923640</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1879,7 +1838,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="1390680"/>
-          <a:ext cx="7381440" cy="2896200"/>
+          <a:ext cx="7381080" cy="2895840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1905,9 +1864,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>18720</xdr:colOff>
+      <xdr:colOff>18360</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>2458080</xdr:rowOff>
+      <xdr:rowOff>2457720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1920,8 +1879,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5743800" y="0"/>
-          <a:ext cx="4405680" cy="2458080"/>
+          <a:off x="5744520" y="0"/>
+          <a:ext cx="4404960" cy="2457720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1942,9 +1901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>313920</xdr:colOff>
+      <xdr:colOff>313560</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>3155400</xdr:rowOff>
+      <xdr:rowOff>3155040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1957,8 +1916,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5715360" y="2638080"/>
-          <a:ext cx="5341320" cy="3155400"/>
+          <a:off x="5716080" y="2638080"/>
+          <a:ext cx="5340240" cy="3155040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1984,9 +1943,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>495000</xdr:colOff>
+      <xdr:colOff>494640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>2830320</xdr:rowOff>
+      <xdr:rowOff>2829960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1999,8 +1958,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9794160" y="88920"/>
-          <a:ext cx="6244200" cy="2741400"/>
+          <a:off x="9794880" y="88920"/>
+          <a:ext cx="6238080" cy="2741040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2021,9 +1980,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>218880</xdr:colOff>
+      <xdr:colOff>218520</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2748960</xdr:rowOff>
+      <xdr:rowOff>2748600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2036,8 +1995,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9736920" y="2952720"/>
-          <a:ext cx="6025320" cy="2748960"/>
+          <a:off x="9737640" y="2952720"/>
+          <a:ext cx="6019200" cy="2748600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2057,13 +2016,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5090040</xdr:colOff>
+      <xdr:colOff>5090400</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>582840</xdr:rowOff>
+      <xdr:rowOff>583200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>200160</xdr:colOff>
+      <xdr:colOff>199800</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>304560</xdr:rowOff>
     </xdr:to>
@@ -2078,8 +2037,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20270160" y="5240520"/>
-          <a:ext cx="9930960" cy="2007720"/>
+          <a:off x="20270520" y="4806360"/>
+          <a:ext cx="9926640" cy="1858680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2107,11 +2066,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="60.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="60.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,7 +2448,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="81.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="81.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
   </cols>
@@ -2530,10 +2489,10 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="12" width="76.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="61.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="3" style="12" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="61.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="3" style="12" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="12" width="68.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="12" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="12" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="232.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2672,8 +2631,8 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2687,21 +2646,21 @@
   </cols>
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>77</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+    <row r="2" customFormat="false" ht="91.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -2736,28 +2695,28 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="144.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="27" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="108.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="31" t="s">
         <v>95</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -2776,7 +2735,7 @@
       </c>
     </row>
     <row r="8" s="12" customFormat="true" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="32" t="s">
         <v>99</v>
       </c>
       <c r="D8" s="11" t="s">
@@ -2811,10 +2770,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="40" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="34" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -2822,10 +2781,10 @@
       </c>
     </row>
     <row r="13" s="12" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="36" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -2833,24 +2792,24 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="93.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="40"/>
     </row>
     <row r="16" s="12" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="41" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2858,32 +2817,32 @@
       <c r="A17" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="41" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="0" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="19" s="12" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="43" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="20" s="12" customFormat="true" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="41" t="s">
         <v>125</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -2891,12 +2850,12 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="44" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="23" s="12" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="45" t="s">
         <v>128</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -2994,7 +2953,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="46" t="s">
         <v>144</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -3045,7 +3004,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
